--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed1/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.276000000000001</v>
+        <v>7.867999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.422</v>
+        <v>5.24</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.566000000000001</v>
+        <v>4.893000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.586</v>
+        <v>5.196000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.502</v>
+        <v>5.305999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.909999999999999</v>
+        <v>6.77</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.036</v>
+        <v>9.223000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.286</v>
+        <v>5.646</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>5.034000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.916</v>
+        <v>5.013</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.328000000000001</v>
+        <v>5.608</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
